--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_2.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_3</t>
+          <t>model_40_2_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998064188562619</v>
+        <v>0.9998536359376631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991634185501529</v>
+        <v>0.9992566635466539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999929934150017</v>
+        <v>0.9984529163600688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998479912753533</v>
+        <v>0.9996298640467393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998875941584537</v>
+        <v>0.9990542043118787</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001806995004494446</v>
+        <v>0.0001366244275517288</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007809120617507311</v>
+        <v>0.0006938719504994014</v>
       </c>
       <c r="I2" t="n">
-        <v>4.546704203517756e-05</v>
+        <v>0.0006361772695599828</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001404537063338971</v>
+        <v>0.0001370830737965214</v>
       </c>
       <c r="K2" t="n">
-        <v>9.296037418453732e-05</v>
+        <v>0.0003866318730882071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009909046240379094</v>
+        <v>0.0009280745585023238</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01344245143005712</v>
+        <v>0.01168864524022048</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000140786286355</v>
+        <v>1.000106446590791</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01401472441714523</v>
+        <v>0.01218625506692794</v>
       </c>
       <c r="P2" t="n">
-        <v>131.2373502497996</v>
+        <v>131.7965496027993</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7132722672871</v>
+        <v>201.2724716202867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_2</t>
+          <t>model_40_2_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999762569932098</v>
+        <v>0.9998495731111199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991622591941343</v>
+        <v>0.9992565535182978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999369405189863</v>
+        <v>0.998371543687597</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998225425676137</v>
+        <v>0.9996168441125225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998761265067125</v>
+        <v>0.9990073832699672</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00022163054641104</v>
+        <v>0.0001404168977922847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007819942697042773</v>
+        <v>0.000693974657140055</v>
       </c>
       <c r="I3" t="n">
-        <v>4.092047801687857e-05</v>
+        <v>0.0006696385791193436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001639679179801424</v>
+        <v>0.0001419051198240192</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001024441979985105</v>
+        <v>0.0004057718494716814</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00107309993213353</v>
+        <v>0.0009120895057504762</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01488726121256156</v>
+        <v>0.01184976361756996</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00017267641302</v>
+        <v>1.000109401373731</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01552104274325945</v>
+        <v>0.01235423258716221</v>
       </c>
       <c r="P3" t="n">
-        <v>130.8289975355514</v>
+        <v>131.7417894379374</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3049195530388</v>
+        <v>201.2177114554248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_4</t>
+          <t>model_40_2_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998414503064915</v>
+        <v>0.999857725284091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999160676707693</v>
+        <v>0.9992561656767296</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999239981465863</v>
+        <v>0.9985410655876815</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999867775236141</v>
+        <v>0.9996438661008658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998963172383217</v>
+        <v>0.9991048869129145</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000147999179362939</v>
+        <v>0.0001328072021627677</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007834714513340034</v>
+        <v>0.0006943366902197408</v>
       </c>
       <c r="I4" t="n">
-        <v>4.931902581286355e-05</v>
+        <v>0.0005999293683547844</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001221736331008823</v>
+        <v>0.0001318972911071632</v>
       </c>
       <c r="K4" t="n">
-        <v>8.57463294568729e-05</v>
+        <v>0.0003659133297309738</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000917223940082182</v>
+        <v>0.0009448804197939581</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01216549133257424</v>
+        <v>0.01152420071687263</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000115308868006</v>
+        <v>1.000103472520661</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0126834014846407</v>
+        <v>0.01201480979977409</v>
       </c>
       <c r="P4" t="n">
-        <v>131.6366076581211</v>
+        <v>131.8532241784783</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.1125296756085</v>
+        <v>201.3291461959657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_1</t>
+          <t>model_40_2_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997077964708984</v>
+        <v>0.9998456165865232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.99915579344274</v>
+        <v>0.999255916772829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999444044921368</v>
+        <v>0.9982968716034495</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997898921365663</v>
+        <v>0.9996051636614484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998608152745583</v>
+        <v>0.998964534975992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002727591681638002</v>
+        <v>0.0001441101398319504</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007880297648171894</v>
+        <v>0.0006945690310853441</v>
       </c>
       <c r="I5" t="n">
-        <v>3.607696607683487e-05</v>
+        <v>0.0007003445353967965</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001941364103785872</v>
+        <v>0.0001462310766041245</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001151066882277111</v>
+        <v>0.0004232878060004605</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001164979618597837</v>
+        <v>0.0008972280333116684</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0165154221309599</v>
+        <v>0.01200458828248393</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000212511657528</v>
+        <v>1.000112278846165</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01721851784271175</v>
+        <v>0.01251564845859281</v>
       </c>
       <c r="P5" t="n">
-        <v>130.4138426400332</v>
+        <v>131.689865381601</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.8897646575206</v>
+        <v>201.1657873990884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_5</t>
+          <t>model_40_2_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998695772109735</v>
+        <v>0.9998418479374125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999154827017161</v>
+        <v>0.9992549413264352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999187724989685</v>
+        <v>0.9982286807303371</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998829111976647</v>
+        <v>0.9995948145045093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999027224914279</v>
+        <v>0.9989255480541138</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001217439486574924</v>
+        <v>0.0001476280083522047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007889318806739861</v>
+        <v>0.0006954795674767105</v>
       </c>
       <c r="I6" t="n">
-        <v>5.271004640213048e-05</v>
+        <v>0.0007283853486701702</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001081882391711409</v>
+        <v>0.0001500639770071002</v>
       </c>
       <c r="K6" t="n">
-        <v>8.044914278663568e-05</v>
+        <v>0.000439225272010336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008538457472786942</v>
+        <v>0.0008831880518977866</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01103376402944582</v>
+        <v>0.01215022667904615</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000094852937474</v>
+        <v>1.000115019681882</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01150349420721961</v>
+        <v>0.01266748698320972</v>
       </c>
       <c r="P6" t="n">
-        <v>132.0271810005107</v>
+        <v>131.641629810632</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.5031030179981</v>
+        <v>201.1175518281194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_6</t>
+          <t>model_40_2_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998920271179551</v>
+        <v>0.9998617228042097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991462519672628</v>
+        <v>0.9992548155636221</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999140402711737</v>
+        <v>0.9986355152187726</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998943909545961</v>
+        <v>0.9996590641882515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999072781391447</v>
+        <v>0.9991592760027389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001007879459271357</v>
+        <v>0.0001290756926028473</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007969363133526634</v>
+        <v>0.0006955969615424843</v>
       </c>
       <c r="I7" t="n">
-        <v>5.578087762903236e-05</v>
+        <v>0.0005610906741383856</v>
       </c>
       <c r="J7" t="n">
-        <v>9.758112163516306e-05</v>
+        <v>0.0001262685470840411</v>
       </c>
       <c r="K7" t="n">
-        <v>7.668159200289958e-05</v>
+        <v>0.0003436796106112133</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007973316549312336</v>
+        <v>0.0009624583526134256</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01003931999326328</v>
+        <v>0.01136114838398158</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000078525732396</v>
+        <v>1.000100565233302</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01046671462963384</v>
+        <v>0.01184481599150701</v>
       </c>
       <c r="P7" t="n">
-        <v>132.4049835870679</v>
+        <v>131.9102231226367</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.8809056045553</v>
+        <v>201.3861451401241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_0</t>
+          <t>model_40_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996394437003195</v>
+        <v>0.9998382194799704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991418673079312</v>
+        <v>0.999253699347196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999514583545652</v>
+        <v>0.9981659637729795</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997488562134521</v>
+        <v>0.9995853821156951</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998406536083795</v>
+        <v>0.9988897325672542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003365634791593314</v>
+        <v>0.0001510150141035023</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008010292003744961</v>
+        <v>0.0006966389005800191</v>
       </c>
       <c r="I8" t="n">
-        <v>3.149958266366149e-05</v>
+        <v>0.0007541752294865757</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002320529675210997</v>
+        <v>0.00015355734435093</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000131780519466176</v>
+        <v>0.0004538662869187528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001270545928310429</v>
+        <v>0.0008703832793317376</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01834566649536973</v>
+        <v>0.01228881662746671</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000262222763404</v>
+        <v>1.000117658560022</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01912667949884263</v>
+        <v>0.0128119769926553</v>
       </c>
       <c r="P8" t="n">
-        <v>129.9934475626472</v>
+        <v>131.5962625898865</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.4693695801346</v>
+        <v>201.072184607374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_7</t>
+          <t>model_40_2_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999097690518044</v>
+        <v>0.9998655186198461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991355321914225</v>
+        <v>0.9992522861111235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999095091060013</v>
+        <v>0.9987362767843957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999027740441999</v>
+        <v>0.9996756156857266</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999101842052215</v>
+        <v>0.9992174491548139</v>
       </c>
       <c r="G9" t="n">
-        <v>8.422662945971809e-05</v>
+        <v>0.0001255324653233117</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008069427535558534</v>
+        <v>0.0006979580944197065</v>
       </c>
       <c r="I9" t="n">
-        <v>5.87212355553501e-05</v>
+        <v>0.0005196564452187685</v>
       </c>
       <c r="J9" t="n">
-        <v>8.983527672978601e-05</v>
+        <v>0.0001201385558474511</v>
       </c>
       <c r="K9" t="n">
-        <v>7.427825614256806e-05</v>
+        <v>0.0003198990044690276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007483464914636541</v>
+        <v>0.0009807858987432466</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009177506712594553</v>
+        <v>0.01120412715579896</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000065622507779</v>
+        <v>1.000097804640112</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009568212173407618</v>
+        <v>0.0116811100445619</v>
       </c>
       <c r="P9" t="n">
-        <v>132.7639988446996</v>
+        <v>131.9658922900224</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.2399208621871</v>
+        <v>201.4418143075098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_8</t>
+          <t>model_40_2_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999236096913787</v>
+        <v>0.9998347184527303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991231673909634</v>
+        <v>0.9992522672049567</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999046833816891</v>
+        <v>0.9981080653069467</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999086294605459</v>
+        <v>0.9995765841186847</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999115624790599</v>
+        <v>0.9988566105025971</v>
       </c>
       <c r="G10" t="n">
-        <v>7.130699995099862e-05</v>
+        <v>0.0001542830693548512</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008184847520323716</v>
+        <v>0.00069797574249652</v>
       </c>
       <c r="I10" t="n">
-        <v>6.185273842303844e-05</v>
+        <v>0.0007779836953521442</v>
       </c>
       <c r="J10" t="n">
-        <v>8.442496275047628e-05</v>
+        <v>0.0001568157591653107</v>
       </c>
       <c r="K10" t="n">
-        <v>7.313841456510837e-05</v>
+        <v>0.0004674062576119531</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007040080359189532</v>
+        <v>0.0008586664351206934</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008444347218761116</v>
+        <v>0.01242107359912384</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000055556588088</v>
+        <v>1.000120204761651</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008803840562072316</v>
+        <v>0.01294986441740554</v>
       </c>
       <c r="P10" t="n">
-        <v>133.0970321186643</v>
+        <v>131.5534430602374</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.5729541361517</v>
+        <v>201.0293650777248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_9</t>
+          <t>model_40_2_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999343363298128</v>
+        <v>0.9998314344640697</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991098285314858</v>
+        <v>0.9992507320795951</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998995564134998</v>
+        <v>0.9980552739065022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999129674159603</v>
+        <v>0.9995687137918498</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999119738094389</v>
+        <v>0.9988265092696135</v>
       </c>
       <c r="G11" t="n">
-        <v>6.129415381773539e-05</v>
+        <v>0.0001573485286190281</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008309359918465337</v>
+        <v>0.0006994087146373579</v>
       </c>
       <c r="I11" t="n">
-        <v>6.517972408346305e-05</v>
+        <v>0.0007996920814562867</v>
       </c>
       <c r="J11" t="n">
-        <v>8.041675916038257e-05</v>
+        <v>0.0001597306032511243</v>
       </c>
       <c r="K11" t="n">
-        <v>7.27982416219228e-05</v>
+        <v>0.0004797113423537055</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006638539885396742</v>
+        <v>0.0008478052883569256</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007829058296994306</v>
+        <v>0.01254386418210226</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0000477553965</v>
+        <v>1.00012259311704</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008162357517082237</v>
+        <v>0.0130778824497129</v>
       </c>
       <c r="P11" t="n">
-        <v>133.3996521791815</v>
+        <v>131.5140945710094</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.8755741966689</v>
+        <v>200.9900165884968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_10</t>
+          <t>model_40_2_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999425532051707</v>
+        <v>0.9998284411468273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990961489076768</v>
+        <v>0.9992491860948527</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998943172538557</v>
+        <v>0.9980080819483381</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999158163597538</v>
+        <v>0.9995619251768784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999115098416412</v>
+        <v>0.9987996983698449</v>
       </c>
       <c r="G12" t="n">
-        <v>5.362406135030546e-05</v>
+        <v>0.0001601426588733237</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008437053202060778</v>
+        <v>0.0007008518235335662</v>
       </c>
       <c r="I12" t="n">
-        <v>6.857951287967006e-05</v>
+        <v>0.0008190979172593002</v>
       </c>
       <c r="J12" t="n">
-        <v>7.778437923700839e-05</v>
+        <v>0.0001622448259277195</v>
       </c>
       <c r="K12" t="n">
-        <v>7.318194605833922e-05</v>
+        <v>0.0004906713715935099</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006281008477087768</v>
+        <v>0.000837703865879463</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007322845167713535</v>
+        <v>0.01265474847135745</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000041779487149</v>
+        <v>1.000124770075035</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007634593846882346</v>
+        <v>0.01319348731272381</v>
       </c>
       <c r="P12" t="n">
-        <v>133.6670253696526</v>
+        <v>131.4788910440547</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.14294738714</v>
+        <v>200.9548130615421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_11</t>
+          <t>model_40_2_9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999488673267078</v>
+        <v>0.9998690307541688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990825952274227</v>
+        <v>0.9992483690951273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998891102481435</v>
+        <v>0.9988441448665084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999177498022802</v>
+        <v>0.9996938203968055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999105469635267</v>
+        <v>0.9992799528587298</v>
       </c>
       <c r="G13" t="n">
-        <v>4.773010605331551e-05</v>
+        <v>0.0001222540420979769</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008563570857855419</v>
+        <v>0.0007016144569150747</v>
       </c>
       <c r="I13" t="n">
-        <v>7.195843638733122e-05</v>
+        <v>0.0004752999410324585</v>
       </c>
       <c r="J13" t="n">
-        <v>7.599790829960825e-05</v>
+        <v>0.0001133962825549043</v>
       </c>
       <c r="K13" t="n">
-        <v>7.397825262559629e-05</v>
+        <v>0.0002943481117936813</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000596206664339101</v>
+        <v>0.0009997104037766738</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00690869785511825</v>
+        <v>0.01105685498222604</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000037187398758</v>
+        <v>1.000095250360604</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007202815425786755</v>
+        <v>0.01152756818966456</v>
       </c>
       <c r="P13" t="n">
-        <v>133.8998964100129</v>
+        <v>132.0188187319195</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.3758184275003</v>
+        <v>201.494740749407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_12</t>
+          <t>model_40_2_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999953708913089</v>
+        <v>0.9998255875051338</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990695189903241</v>
+        <v>0.9992476391842078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998840862984724</v>
+        <v>0.9979645584166107</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999190482806262</v>
+        <v>0.9995554936119808</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999093013866789</v>
+        <v>0.9987748996887544</v>
       </c>
       <c r="G14" t="n">
-        <v>4.321069768753489e-05</v>
+        <v>0.0001628064081338233</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008685631791365131</v>
+        <v>0.0007022957967190391</v>
       </c>
       <c r="I14" t="n">
-        <v>7.52185714022361e-05</v>
+        <v>0.0008369952570418828</v>
       </c>
       <c r="J14" t="n">
-        <v>7.479813442667008e-05</v>
+        <v>0.0001646268119998807</v>
       </c>
       <c r="K14" t="n">
-        <v>7.500835291445308e-05</v>
+        <v>0.0005008088258456138</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005677591012493353</v>
+        <v>0.0008286773255375768</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006573484440350863</v>
+        <v>0.01275956143971349</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000033666245026</v>
+        <v>1.000126845450812</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00685333128196529</v>
+        <v>0.01330276238613552</v>
       </c>
       <c r="P14" t="n">
-        <v>134.0988449234279</v>
+        <v>131.4458974863383</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.5747669409154</v>
+        <v>200.9218195038257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_13</t>
+          <t>model_40_2_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999574118709089</v>
+        <v>0.9998229452984639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990571061699982</v>
+        <v>0.9992460899399069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998791384158473</v>
+        <v>0.9979250176758941</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999199693426193</v>
+        <v>0.9995497645972304</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999078747193224</v>
+        <v>0.9987524283672627</v>
       </c>
       <c r="G15" t="n">
-        <v>3.975414910371962e-05</v>
+        <v>0.0001652727920807761</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008801500020509237</v>
+        <v>0.0007037419482699007</v>
       </c>
       <c r="I15" t="n">
-        <v>7.842934508665352e-05</v>
+        <v>0.0008532548307431349</v>
       </c>
       <c r="J15" t="n">
-        <v>7.394708741603989e-05</v>
+        <v>0.0001667486025065495</v>
       </c>
       <c r="K15" t="n">
-        <v>7.61882162513467e-05</v>
+        <v>0.0005099948786350337</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005423842429620302</v>
+        <v>0.0008203809881449789</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006305089143201674</v>
+        <v>0.01285584661081393</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000030973184794</v>
+        <v>1.000128767055663</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006573509841361603</v>
+        <v>0.01340314661630749</v>
       </c>
       <c r="P15" t="n">
-        <v>134.2655926846867</v>
+        <v>131.4158263277948</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.7415147021741</v>
+        <v>200.8917483452822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_14</t>
+          <t>model_40_2_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999602542785456</v>
+        <v>0.9998204594510937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990454285900996</v>
+        <v>0.9992445598785672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998744789007514</v>
+        <v>0.9978886924557435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999205870165058</v>
+        <v>0.9995444096696638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999063917048829</v>
+        <v>0.9987317157335334</v>
       </c>
       <c r="G16" t="n">
-        <v>3.710088634211114e-05</v>
+        <v>0.0001675932214848264</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008910505102997805</v>
+        <v>0.0007051701933686786</v>
       </c>
       <c r="I16" t="n">
-        <v>8.145299168165917e-05</v>
+        <v>0.0008681921481415591</v>
       </c>
       <c r="J16" t="n">
-        <v>7.337636631528595e-05</v>
+        <v>0.0001687318465667756</v>
       </c>
       <c r="K16" t="n">
-        <v>7.741467899847256e-05</v>
+        <v>0.0005184619973541674</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005197044904456602</v>
+        <v>0.0008129041089081304</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006091049691318496</v>
+        <v>0.01294578006474799</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00002890597924</v>
+        <v>1.000130574944659</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006350358286889011</v>
+        <v>0.01349690872356343</v>
       </c>
       <c r="P16" t="n">
-        <v>134.4037393960267</v>
+        <v>131.387941630671</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.879661413514</v>
+        <v>200.8638636481584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_15</t>
+          <t>model_40_2_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999624443056684</v>
+        <v>0.999818228471446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999034551753288</v>
+        <v>0.9992431286556734</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998700958692595</v>
+        <v>0.997856322818703</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999210543487412</v>
+        <v>0.9995398432267776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999049331775703</v>
+        <v>0.9987133665086229</v>
       </c>
       <c r="G17" t="n">
-        <v>3.505659215406576e-05</v>
+        <v>0.0001696757430572081</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009012035600254462</v>
+        <v>0.0007065061771165447</v>
       </c>
       <c r="I17" t="n">
-        <v>8.429722288895527e-05</v>
+        <v>0.000881502887637202</v>
       </c>
       <c r="J17" t="n">
-        <v>7.294455857058701e-05</v>
+        <v>0.0001704230684587554</v>
       </c>
       <c r="K17" t="n">
-        <v>7.862089072977114e-05</v>
+        <v>0.0005259629780479787</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004993790279995684</v>
+        <v>0.0008059705961215908</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00592086076124627</v>
+        <v>0.01302596418915729</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000027313232241</v>
+        <v>1.000132197475312</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006172924061723958</v>
+        <v>0.01358050645215286</v>
       </c>
       <c r="P17" t="n">
-        <v>134.5170937671858</v>
+        <v>131.3632426721742</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.9930157846732</v>
+        <v>200.8391646896616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_16</t>
+          <t>model_40_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999964110522831</v>
+        <v>0.9998718855439112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990244503151409</v>
+        <v>0.9992426174370966</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998659306070615</v>
+        <v>0.998956420253822</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999213702654357</v>
+        <v>0.9997129406339884</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999034755021003</v>
+        <v>0.9993450761647149</v>
       </c>
       <c r="G18" t="n">
-        <v>3.350125157129377e-05</v>
+        <v>0.0001195892211842098</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009106328091339621</v>
+        <v>0.0007069833772181153</v>
       </c>
       <c r="I18" t="n">
-        <v>8.700013952356208e-05</v>
+        <v>0.0004291311060087167</v>
       </c>
       <c r="J18" t="n">
-        <v>7.265265643970294e-05</v>
+        <v>0.0001063149361964767</v>
       </c>
       <c r="K18" t="n">
-        <v>7.982639798163252e-05</v>
+        <v>0.0002677263518396945</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004812248929957237</v>
+        <v>0.001019276464718974</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005788026569677593</v>
+        <v>0.01093568567508274</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000026101437941</v>
+        <v>1.000093174149883</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006034434843615519</v>
+        <v>0.01140124045426112</v>
       </c>
       <c r="P18" t="n">
-        <v>134.607855518988</v>
+        <v>132.062895688774</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.0837775364754</v>
+        <v>201.5388177062614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_17</t>
+          <t>model_40_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999653736866358</v>
+        <v>0.9998741311725221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990151144418945</v>
+        <v>0.9992346053415962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998620331519443</v>
+        <v>0.9990747176501049</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999215719762522</v>
+        <v>0.9997344380841219</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999020590962927</v>
+        <v>0.9994143238676348</v>
       </c>
       <c r="G19" t="n">
-        <v>3.232214360592933e-05</v>
+        <v>0.0001174930254476125</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009193474370119296</v>
+        <v>0.0007144623166773778</v>
       </c>
       <c r="I19" t="n">
-        <v>8.952927112890209e-05</v>
+        <v>0.0003804859567608647</v>
       </c>
       <c r="J19" t="n">
-        <v>7.246627877065219e-05</v>
+        <v>9.835316831869241e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>8.099777494977714e-05</v>
+        <v>0.0002394185794283039</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004650010086160108</v>
+        <v>0.001038138511276399</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005685256687778427</v>
+        <v>0.01083941997745324</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000025182773356</v>
+        <v>1.000091540965439</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005927289835080922</v>
+        <v>0.01130087652658607</v>
       </c>
       <c r="P19" t="n">
-        <v>134.6795160041397</v>
+        <v>132.0982631680689</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.1554380216272</v>
+        <v>201.5741851855564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_18</t>
+          <t>model_40_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999663335984492</v>
+        <v>0.9998750998562849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990065473924028</v>
+        <v>0.9992236620094042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999858429120613</v>
+        <v>0.9991947730444031</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999217405062142</v>
+        <v>0.9997571520862074</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999007392735059</v>
+        <v>0.9994849834852136</v>
       </c>
       <c r="G20" t="n">
-        <v>3.142610806345571e-05</v>
+        <v>0.0001165888016754428</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009273444016624157</v>
+        <v>0.000724677436921889</v>
       </c>
       <c r="I20" t="n">
-        <v>9.186799454518077e-05</v>
+        <v>0.0003311179000060857</v>
       </c>
       <c r="J20" t="n">
-        <v>7.231055969702056e-05</v>
+        <v>8.994083983055469e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>8.208927712110066e-05</v>
+        <v>0.0002105336303433004</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004504169751831638</v>
+        <v>0.001057859548198111</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005605899398263913</v>
+        <v>0.0107976294470334</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000024484655673</v>
+        <v>1.000090836468156</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005844554141459539</v>
+        <v>0.01125730688676793</v>
       </c>
       <c r="P20" t="n">
-        <v>134.7357430870764</v>
+        <v>132.1137146583588</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.2116651045638</v>
+        <v>201.5896366758463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_19</t>
+          <t>model_40_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999670626951309</v>
+        <v>0.9998744501090543</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989987102450977</v>
+        <v>0.999209315349343</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998551377731072</v>
+        <v>0.9993146704755564</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999921891354411</v>
+        <v>0.9997808317644483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998995321283494</v>
+        <v>0.9995560243478404</v>
       </c>
       <c r="G21" t="n">
-        <v>3.074552831465311e-05</v>
+        <v>0.0001171953121945293</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009346600346607241</v>
+        <v>0.0007380694143434124</v>
       </c>
       <c r="I21" t="n">
-        <v>9.40038115720672e-05</v>
+        <v>0.0002818147993787579</v>
       </c>
       <c r="J21" t="n">
-        <v>7.217117830039501e-05</v>
+        <v>8.117086476822479e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>8.308759414721613e-05</v>
+        <v>0.0001814928320734914</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004373046774756672</v>
+        <v>0.001077591345437224</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005544865040255994</v>
+        <v>0.01082567837110125</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000023954403541</v>
+        <v>1.000091309011597</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005780921424472685</v>
+        <v>0.01128654991160262</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7795319898961</v>
+        <v>132.103337359923</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.2554540073835</v>
+        <v>201.5792593774104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_20</t>
+          <t>model_40_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999676009349421</v>
+        <v>0.9998716321535002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.998991549726795</v>
+        <v>0.9991907960570434</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999852086615524</v>
+        <v>0.9994320268560973</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999219982775587</v>
+        <v>0.9998054438745757</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998983949188593</v>
+        <v>0.9996261991257336</v>
       </c>
       <c r="G22" t="n">
-        <v>3.024310507692754e-05</v>
+        <v>0.0001198257500103541</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009413440641858742</v>
+        <v>0.0007553563608020682</v>
       </c>
       <c r="I22" t="n">
-        <v>9.59837648606493e-05</v>
+        <v>0.0002335566058260811</v>
       </c>
       <c r="J22" t="n">
-        <v>7.207238296860327e-05</v>
+        <v>7.205555543617546e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>8.402807391462628e-05</v>
+        <v>0.0001528060806311283</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004255560447976377</v>
+        <v>0.001099024918129716</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005499373153090044</v>
+        <v>0.01094649487326213</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000023562956406</v>
+        <v>1.000093358433818</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005733492853488891</v>
+        <v>0.01141250982238513</v>
       </c>
       <c r="P22" t="n">
-        <v>134.8124846616179</v>
+        <v>132.0589439074477</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.2884066791053</v>
+        <v>201.5348659249352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_21</t>
+          <t>model_40_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999680031696925</v>
+        <v>0.9998659596712597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989850289210067</v>
+        <v>0.9991673235190115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998493147925291</v>
+        <v>0.9995434663525465</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99992210427327</v>
+        <v>0.9998302226076957</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998973694931893</v>
+        <v>0.9996934734227579</v>
       </c>
       <c r="G23" t="n">
-        <v>2.986763659352905e-05</v>
+        <v>0.000125120763188688</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000947430950158973</v>
+        <v>0.0007772669447295478</v>
       </c>
       <c r="I23" t="n">
-        <v>9.778245270431289e-05</v>
+        <v>0.0001877314980281965</v>
       </c>
       <c r="J23" t="n">
-        <v>7.197444457361953e-05</v>
+        <v>6.287853582771002e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>8.487610772389478e-05</v>
+        <v>0.0001253050169279532</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004149629843578728</v>
+        <v>0.001122403536550016</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005465129147012818</v>
+        <v>0.01118573927770034</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000023270422042</v>
+        <v>1.000097483875448</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005697791009178092</v>
+        <v>0.01166193935642446</v>
       </c>
       <c r="P23" t="n">
-        <v>134.8374701038981</v>
+        <v>131.9724623630641</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.3133921213855</v>
+        <v>201.4483843805515</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_22</t>
+          <t>model_40_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999682884509193</v>
+        <v>0.9998566426155974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989790837045555</v>
+        <v>0.9991379008388269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998467628319317</v>
+        <v>0.9996463701000157</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999221788644103</v>
+        <v>0.9998543798375317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998964071213253</v>
+        <v>0.9997561732439633</v>
       </c>
       <c r="G24" t="n">
-        <v>2.960133909064695e-05</v>
+        <v>0.0001338178256779904</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009529805487513928</v>
+        <v>0.0008047317251754125</v>
       </c>
       <c r="I24" t="n">
-        <v>9.943846772136251e-05</v>
+        <v>0.0001454163811187277</v>
       </c>
       <c r="J24" t="n">
-        <v>7.190552351575308e-05</v>
+        <v>5.393169537314042e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>8.567199561855781e-05</v>
+        <v>9.967395345477224e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004054832478554717</v>
+        <v>0.001146387517188618</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005440711266980352</v>
+        <v>0.01156796549432917</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000023062944786</v>
+        <v>1.000104259915929</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005672333609440664</v>
+        <v>0.01206043773441253</v>
       </c>
       <c r="P24" t="n">
-        <v>134.8553819162173</v>
+        <v>131.8380623857022</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.3313039337047</v>
+        <v>201.3139844031896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_23</t>
+          <t>model_40_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999684872724052</v>
+        <v>0.999842751446958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989736749418573</v>
+        <v>0.9991014572263671</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998444349512244</v>
+        <v>0.9997379746202022</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999222277491315</v>
+        <v>0.9998771281047426</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998955206325708</v>
+        <v>0.9998125513319764</v>
       </c>
       <c r="G25" t="n">
-        <v>2.941574796086138e-05</v>
+        <v>0.0001467846218509819</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000958029391312858</v>
+        <v>0.0008387502377170136</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001009490731019023</v>
+        <v>0.0001077476268074271</v>
       </c>
       <c r="J25" t="n">
-        <v>7.186035479073089e-05</v>
+        <v>4.550667649737579e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>8.640512767997744e-05</v>
+        <v>7.662715165240144e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003969735686791983</v>
+        <v>0.001175311585620327</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005423628670997064</v>
+        <v>0.01211547035203264</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000022918347342</v>
+        <v>1.000114362584031</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00565452377198052</v>
+        <v>0.01263125100739973</v>
       </c>
       <c r="P25" t="n">
-        <v>134.8679607641978</v>
+        <v>131.6530884061092</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.3438827816852</v>
+        <v>201.1290104235967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_40_2_24</t>
+          <t>model_40_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999686229540273</v>
+        <v>0.9998232692193633</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989687704931918</v>
+        <v>0.9990566041660215</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998423196390631</v>
+        <v>0.9998163952905382</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999922275268516</v>
+        <v>0.999898329652591</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999894717778634</v>
+        <v>0.9998615980150622</v>
       </c>
       <c r="G26" t="n">
-        <v>2.928909512239501e-05</v>
+        <v>0.0001649704261397115</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000962607478861746</v>
+        <v>0.0008806186007277669</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001023217387724952</v>
+        <v>7.550021196585634e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>7.181644761582568e-05</v>
+        <v>3.765449860788097e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>8.706909319416045e-05</v>
+        <v>5.657735528686866e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003893067991546554</v>
+        <v>0.001211252627093626</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005411940051626127</v>
+        <v>0.0128440813661278</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000022819669798</v>
+        <v>1.000128531476827</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005642337543884185</v>
+        <v>0.01339088050079766</v>
       </c>
       <c r="P26" t="n">
-        <v>134.876590582681</v>
+        <v>131.4194886712904</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.3525126001684</v>
+        <v>200.8954106887778</v>
       </c>
     </row>
   </sheetData>
